--- a/Results/case2/case2.xlsx
+++ b/Results/case2/case2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_9DFC7EAA81456A4FE72564B74F5DCE3A6745A5AB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{52B40879-BA5A-4F66-A036-009A5EFB05B2}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_9DFC7EAA81456A4FE72564B74F5DCE3A6745A5AB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B5D77794-DB7C-4EE1-895A-ADB12FB22609}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="0.8" sheetId="2" r:id="rId2"/>
     <sheet name="0.9" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -744,7 +744,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -785,7 +785,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -841,7 +841,8 @@
         <c:crossAx val="1694866815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="1.0000000000000002E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="4.0000000000000013E-4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3321,14 +3322,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
